--- a/biology/Zoologie/Falcileptoneta_aichiensis/Falcileptoneta_aichiensis.xlsx
+++ b/biology/Zoologie/Falcileptoneta_aichiensis/Falcileptoneta_aichiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Falcileptoneta aichiensis est une espèce d'araignées aranéomorphes de la famille des Leptonetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falcileptoneta aichiensis est une espèce d'araignées aranéomorphes de la famille des Leptonetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Honshū au Japon[1]. Elle se rencontre à Seto et à Toyota dans la préfecture d'Aichi et à Komono dans la préfecture de Mie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Honshū au Japon. Elle se rencontre à Seto et à Toyota dans la préfecture d'Aichi et à Komono dans la préfecture de Mie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,76 mm et la femelle paratype 1,69 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,76 mm et la femelle paratype 1,69 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de aichi et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la préfecture d'Aichi.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Irie &amp; Ono, 2007 : Two new species of the genus Falcileptoneta (Arachnida, Araneae, Leptonetidae) collected from Chûbu District, Honshu, Japan. Bulletin of the National Museum of Nature and Science, Tokyo, sér. A, vol. 33, p. 175-180 (texte original).</t>
         </is>
